--- a/public/format/format_siswa.xlsx
+++ b/public/format/format_siswa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\application\e-spp\public\format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53AC38D-0D41-4CBD-AAA8-944B6D697229}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4859DB4-F9C0-4248-90AA-1F58AB2364A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{742B0A92-058C-4EEA-83FB-A058ACC2386E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="76">
   <si>
     <t>NIS</t>
   </si>
@@ -225,6 +225,9 @@
     <t>RFID</t>
   </si>
   <si>
+    <t>0008456784</t>
+  </si>
+  <si>
     <t>0008456718</t>
   </si>
   <si>
@@ -249,14 +252,14 @@
     <t>0009531418</t>
   </si>
   <si>
-    <t>0009474751</t>
+    <t>0000000000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +278,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -297,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -323,10 +332,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -645,14 +651,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1394C8E2-DCA2-46C0-AC35-BB291BE20FC4}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
@@ -666,7 +672,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -693,7 +699,7 @@
         <v>6282</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
@@ -719,7 +725,7 @@
         <v>6283</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -745,7 +751,7 @@
         <v>6284</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>10</v>
@@ -771,7 +777,7 @@
         <v>6285</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>11</v>
@@ -797,7 +803,7 @@
         <v>6286</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
@@ -823,7 +829,7 @@
         <v>6288</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>13</v>
@@ -849,7 +855,7 @@
         <v>6289</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>14</v>
@@ -875,7 +881,7 @@
         <v>6290</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>15</v>
@@ -901,7 +907,7 @@
         <v>6291</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -926,6 +932,9 @@
       <c r="A11" s="3">
         <v>6292</v>
       </c>
+      <c r="B11" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
@@ -949,6 +958,9 @@
       <c r="A12" s="3">
         <v>6293</v>
       </c>
+      <c r="B12" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C12" s="4" t="s">
         <v>18</v>
       </c>
@@ -972,6 +984,9 @@
       <c r="A13" s="3">
         <v>6294</v>
       </c>
+      <c r="B13" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
@@ -995,6 +1010,9 @@
       <c r="A14" s="3">
         <v>6295</v>
       </c>
+      <c r="B14" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C14" s="4" t="s">
         <v>20</v>
       </c>
@@ -1018,6 +1036,9 @@
       <c r="A15" s="3">
         <v>6296</v>
       </c>
+      <c r="B15" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1041,6 +1062,9 @@
       <c r="A16" s="3">
         <v>6297</v>
       </c>
+      <c r="B16" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
@@ -1064,6 +1088,9 @@
       <c r="A17" s="3">
         <v>6298</v>
       </c>
+      <c r="B17" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C17" s="4" t="s">
         <v>23</v>
       </c>
@@ -1087,6 +1114,9 @@
       <c r="A18" s="3">
         <v>6299</v>
       </c>
+      <c r="B18" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C18" s="4" t="s">
         <v>24</v>
       </c>
@@ -1110,6 +1140,9 @@
       <c r="A19" s="3">
         <v>6300</v>
       </c>
+      <c r="B19" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C19" s="4" t="s">
         <v>25</v>
       </c>
@@ -1133,6 +1166,9 @@
       <c r="A20" s="3">
         <v>6301</v>
       </c>
+      <c r="B20" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C20" s="4" t="s">
         <v>26</v>
       </c>
@@ -1156,6 +1192,9 @@
       <c r="A21" s="3">
         <v>6302</v>
       </c>
+      <c r="B21" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C21" s="4" t="s">
         <v>27</v>
       </c>
@@ -1179,6 +1218,9 @@
       <c r="A22" s="3">
         <v>6303</v>
       </c>
+      <c r="B22" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C22" s="4" t="s">
         <v>28</v>
       </c>
@@ -1202,6 +1244,9 @@
       <c r="A23" s="3">
         <v>6304</v>
       </c>
+      <c r="B23" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C23" s="4" t="s">
         <v>29</v>
       </c>
@@ -1225,6 +1270,9 @@
       <c r="A24" s="3">
         <v>6305</v>
       </c>
+      <c r="B24" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C24" s="4" t="s">
         <v>30</v>
       </c>
@@ -1248,6 +1296,9 @@
       <c r="A25" s="3">
         <v>6306</v>
       </c>
+      <c r="B25" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C25" s="4" t="s">
         <v>31</v>
       </c>
@@ -1271,6 +1322,9 @@
       <c r="A26" s="3">
         <v>6335</v>
       </c>
+      <c r="B26" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C26" s="4" t="s">
         <v>32</v>
       </c>
@@ -1294,6 +1348,9 @@
       <c r="A27" s="3">
         <v>6340</v>
       </c>
+      <c r="B27" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C27" s="4" t="s">
         <v>33</v>
       </c>
@@ -1317,6 +1374,9 @@
       <c r="A28" s="3">
         <v>6307</v>
       </c>
+      <c r="B28" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C28" s="4" t="s">
         <v>34</v>
       </c>
@@ -1340,6 +1400,9 @@
       <c r="A29" s="3">
         <v>6309</v>
       </c>
+      <c r="B29" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C29" s="4" t="s">
         <v>35</v>
       </c>
@@ -1363,6 +1426,9 @@
       <c r="A30" s="3">
         <v>6310</v>
       </c>
+      <c r="B30" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C30" s="4" t="s">
         <v>36</v>
       </c>
@@ -1386,6 +1452,9 @@
       <c r="A31" s="3">
         <v>6311</v>
       </c>
+      <c r="B31" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C31" s="4" t="s">
         <v>37</v>
       </c>
@@ -1409,6 +1478,9 @@
       <c r="A32" s="3">
         <v>6312</v>
       </c>
+      <c r="B32" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C32" s="4" t="s">
         <v>38</v>
       </c>
@@ -1432,6 +1504,9 @@
       <c r="A33" s="3">
         <v>6313</v>
       </c>
+      <c r="B33" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C33" s="4" t="s">
         <v>39</v>
       </c>
@@ -1455,6 +1530,9 @@
       <c r="A34" s="3">
         <v>6314</v>
       </c>
+      <c r="B34" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C34" s="4" t="s">
         <v>40</v>
       </c>
@@ -1478,6 +1556,9 @@
       <c r="A35" s="3">
         <v>6315</v>
       </c>
+      <c r="B35" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C35" s="4" t="s">
         <v>41</v>
       </c>
@@ -1501,6 +1582,9 @@
       <c r="A36" s="3">
         <v>6316</v>
       </c>
+      <c r="B36" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C36" s="4" t="s">
         <v>42</v>
       </c>
@@ -1524,6 +1608,9 @@
       <c r="A37" s="3">
         <v>6317</v>
       </c>
+      <c r="B37" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C37" s="4" t="s">
         <v>43</v>
       </c>
@@ -1547,6 +1634,9 @@
       <c r="A38" s="3">
         <v>6318</v>
       </c>
+      <c r="B38" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C38" s="4" t="s">
         <v>44</v>
       </c>
@@ -1570,6 +1660,9 @@
       <c r="A39" s="3">
         <v>6319</v>
       </c>
+      <c r="B39" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C39" s="4" t="s">
         <v>45</v>
       </c>
@@ -1593,6 +1686,9 @@
       <c r="A40" s="3">
         <v>6320</v>
       </c>
+      <c r="B40" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C40" s="4" t="s">
         <v>46</v>
       </c>
@@ -1616,6 +1712,9 @@
       <c r="A41" s="3">
         <v>6321</v>
       </c>
+      <c r="B41" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C41" s="4" t="s">
         <v>47</v>
       </c>
@@ -1639,6 +1738,9 @@
       <c r="A42" s="3">
         <v>6322</v>
       </c>
+      <c r="B42" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C42" s="4" t="s">
         <v>48</v>
       </c>
@@ -1662,6 +1764,9 @@
       <c r="A43" s="3">
         <v>6323</v>
       </c>
+      <c r="B43" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C43" s="4" t="s">
         <v>49</v>
       </c>
@@ -1685,6 +1790,9 @@
       <c r="A44" s="3">
         <v>6324</v>
       </c>
+      <c r="B44" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C44" s="4" t="s">
         <v>50</v>
       </c>
@@ -1708,6 +1816,9 @@
       <c r="A45" s="3">
         <v>6325</v>
       </c>
+      <c r="B45" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C45" s="4" t="s">
         <v>51</v>
       </c>
@@ -1731,6 +1842,9 @@
       <c r="A46" s="3">
         <v>6326</v>
       </c>
+      <c r="B46" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C46" s="4" t="s">
         <v>52</v>
       </c>
@@ -1754,6 +1868,9 @@
       <c r="A47" s="3">
         <v>6327</v>
       </c>
+      <c r="B47" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C47" s="4" t="s">
         <v>53</v>
       </c>
@@ -1777,6 +1894,9 @@
       <c r="A48" s="3">
         <v>6328</v>
       </c>
+      <c r="B48" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C48" s="4" t="s">
         <v>54</v>
       </c>
@@ -1800,6 +1920,9 @@
       <c r="A49" s="3">
         <v>6329</v>
       </c>
+      <c r="B49" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C49" s="4" t="s">
         <v>55</v>
       </c>
@@ -1823,6 +1946,9 @@
       <c r="A50" s="3">
         <v>6330</v>
       </c>
+      <c r="B50" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C50" s="4" t="s">
         <v>56</v>
       </c>
@@ -1846,6 +1972,9 @@
       <c r="A51" s="3">
         <v>6331</v>
       </c>
+      <c r="B51" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C51" s="4" t="s">
         <v>57</v>
       </c>
@@ -1869,6 +1998,9 @@
       <c r="A52" s="3">
         <v>6332</v>
       </c>
+      <c r="B52" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C52" s="4" t="s">
         <v>58</v>
       </c>
@@ -1892,6 +2024,9 @@
       <c r="A53" s="7">
         <v>6337</v>
       </c>
+      <c r="B53" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C53" s="8" t="s">
         <v>59</v>
       </c>
@@ -1915,6 +2050,9 @@
       <c r="A54" s="7">
         <v>6120</v>
       </c>
+      <c r="B54" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C54" s="8" t="s">
         <v>60</v>
       </c>
@@ -1938,6 +2076,9 @@
       <c r="A55" s="7">
         <v>6342</v>
       </c>
+      <c r="B55" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C55" s="8" t="s">
         <v>61</v>
       </c>
@@ -1958,6 +2099,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>